--- a/src/test/resources/testdata/test-reader.xlsx
+++ b/src/test/resources/testdata/test-reader.xlsx
@@ -67,7 +67,7 @@
     <t>FOO_2</t>
   </si>
   <si>
-    <t>4..10</t>
+    <t>4 – 10</t>
   </si>
   <si>
     <t>FOO_3</t>
@@ -258,7 +258,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/testdata/test-reader.xlsx
+++ b/src/test/resources/testdata/test-reader.xlsx
@@ -67,7 +67,7 @@
     <t>FOO_2</t>
   </si>
   <si>
-    <t>4 – 10</t>
+    <t>4..10</t>
   </si>
   <si>
     <t>FOO_3</t>
@@ -258,7 +258,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
